--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2095585.196673776</v>
+        <v>2171114.866338581</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.83780062</v>
+        <v>2264668.837800615</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665972</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>388.6989993158352</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>125.0463248722756</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,13 +816,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -865,13 +867,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>156.127162662147</v>
+        <v>171.7498680634317</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>132.6301997610084</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>64.04741578179755</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +943,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>128.7835007017903</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>187.5766315601733</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>126.1512633158934</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1303,16 +1305,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>54.11133352146499</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1336,10 +1338,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>20.97516701831636</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1370,10 +1372,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710087</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206818</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1427,7 +1429,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,10 +1466,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1540,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>12.65952049893042</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
@@ -1585,13 +1587,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>231.9269980152367</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1622,10 +1624,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113172</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1701,10 +1703,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H15" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>100.0936033218468</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836072</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985811</v>
       </c>
       <c r="V16" t="n">
-        <v>146.185469167088</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.779135052741</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051975</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1938,10 +1940,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H18" t="n">
-        <v>94.98542483262921</v>
+        <v>94.98542483262923</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014455</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>149.5036340647078</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>203.5330926723469</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2134,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2290,13 +2292,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151914</v>
       </c>
       <c r="V22" t="n">
-        <v>172.7067178467369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>17.13387053928652</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2570,7 +2572,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I26" t="n">
         <v>81.77913505274077</v>
@@ -2761,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>210.968521252134</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>115.5269768002176</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2849,7 +2851,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2968,7 +2970,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>82.35845141792572</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,10 +3015,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>184.6017293039177</v>
       </c>
     </row>
     <row r="32">
@@ -3086,7 +3088,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3184,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>88.0970556317673</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.4935684633776</v>
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,13 +3246,13 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>116.8645225501837</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3281,10 +3283,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H35" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3424,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>158.8214137108215</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>118.4898845065119</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3484,13 +3486,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3670,13 +3672,13 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>192.3228038217186</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>135.9059707721073</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3946,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>115.5269768002169</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>139.1537278750035</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274077</v>
@@ -4135,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>27.26009267756244</v>
       </c>
       <c r="X46" t="n">
-        <v>107.5009259672063</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1017.998017761265</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C2" t="n">
-        <v>1017.998017761265</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D2" t="n">
-        <v>1017.998017761265</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E2" t="n">
-        <v>1017.998017761265</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W2" t="n">
-        <v>2168.202948062278</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="X2" t="n">
-        <v>1794.737189801198</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y2" t="n">
-        <v>1404.597857825387</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="3">
@@ -4398,10 +4400,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>372.9958041606071</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>204.0596212327002</v>
       </c>
       <c r="D4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>570.4247794971948</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="T4" t="n">
-        <v>343.1165921657965</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>554.6442689908469</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1865.381229508782</v>
+        <v>1702.337823625994</v>
       </c>
       <c r="C5" t="n">
-        <v>1496.41871256837</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="D5" t="n">
-        <v>1138.15301396162</v>
+        <v>1333.375306685582</v>
       </c>
       <c r="E5" t="n">
-        <v>752.3647613633757</v>
+        <v>947.5870540873382</v>
       </c>
       <c r="F5" t="n">
-        <v>341.3788565737681</v>
+        <v>536.6011492977307</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>118.6373411959175</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>118.6373411959175</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X5" t="n">
-        <v>2642.120401548716</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y5" t="n">
-        <v>2251.981069572904</v>
+        <v>1702.337823625994</v>
       </c>
     </row>
     <row r="6">
@@ -4656,13 +4658,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4729,40 +4731,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286579</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="U7" t="n">
-        <v>281.9325327183818</v>
+        <v>598.0446400632119</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
         <v>53.94298182036445</v>
@@ -4778,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2212.181128500978</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1881.118241157407</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1490.978909181595</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="C10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="E10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="F10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="G10" t="n">
-        <v>235.9284171545819</v>
+        <v>154.2574189011746</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="T10" t="n">
-        <v>257.1154545468206</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="U10" t="n">
-        <v>257.1154545468206</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="V10" t="n">
-        <v>257.1154545468206</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="W10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.9284171545819</v>
+        <v>323.2572191628421</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550605</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823868</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121733</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614727</v>
       </c>
     </row>
     <row r="12">
@@ -5094,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C12" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D12" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E12" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5154,7 +5156,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V12" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W12" t="n">
         <v>1571.258395043133</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>527.3450129705744</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.48306298006</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585743</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119724</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119724</v>
+        <v>1375.053772676361</v>
       </c>
       <c r="T13" t="n">
-        <v>1164.05575190923</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="U13" t="n">
-        <v>1164.05575190923</v>
+        <v>1151.268357465867</v>
       </c>
       <c r="V13" t="n">
-        <v>1164.05575190923</v>
+        <v>896.58386925998</v>
       </c>
       <c r="W13" t="n">
-        <v>929.7860569443443</v>
+        <v>896.58386925998</v>
       </c>
       <c r="X13" t="n">
-        <v>929.7860569443443</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y13" t="n">
-        <v>708.9934778008142</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751407</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795204</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515093</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619123</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643318</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.63284889912</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207822</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C15" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D15" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E15" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G15" t="n">
-        <v>221.3451287358148</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643586</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963125</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278839</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5391,7 +5393,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W15" t="n">
         <v>1571.258395043133</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>527.3450129705744</v>
+        <v>496.3514742750621</v>
       </c>
       <c r="C16" t="n">
-        <v>527.3450129705744</v>
+        <v>496.3514742750621</v>
       </c>
       <c r="D16" t="n">
-        <v>527.3450129705744</v>
+        <v>346.2348348627263</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>198.3217412803332</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>198.3217412803332</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>198.3217412803332</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>198.3217412803332</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585744</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.9162705579</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119725</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035276</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247819</v>
+        <v>1187.921157035277</v>
       </c>
       <c r="U16" t="n">
-        <v>675.0071030383401</v>
+        <v>898.7925182488319</v>
       </c>
       <c r="V16" t="n">
-        <v>527.3450129705744</v>
+        <v>898.7925182488319</v>
       </c>
       <c r="W16" t="n">
-        <v>527.3450129705744</v>
+        <v>898.7925182488319</v>
       </c>
       <c r="X16" t="n">
-        <v>527.3450129705744</v>
+        <v>898.7925182488319</v>
       </c>
       <c r="Y16" t="n">
-        <v>527.3450129705744</v>
+        <v>677.9999391053018</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,46 +5500,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805473</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822465</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823858</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514156</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795213</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515102</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619132</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643326</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690732</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409605</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748354</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742898</v>
+        <v>504.8063651047447</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769783</v>
+        <v>358.2718071316297</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373968</v>
+        <v>221.345128735815</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805656</v>
+        <v>125.4002551675026</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.49815909844</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250802</v>
+        <v>263.5382936126479</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095315</v>
+        <v>674.4285624571601</v>
       </c>
       <c r="L18" t="n">
-        <v>3525.606699852204</v>
+        <v>921.1936903636234</v>
       </c>
       <c r="M18" t="n">
-        <v>3959.296496892129</v>
+        <v>1228.513823643584</v>
       </c>
       <c r="N18" t="n">
-        <v>4289.159124556161</v>
+        <v>1558.376451307616</v>
       </c>
       <c r="O18" t="n">
-        <v>4568.699189774858</v>
+        <v>1837.916516526312</v>
       </c>
       <c r="P18" t="n">
-        <v>4773.721670557068</v>
+        <v>2328.464088060425</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014291</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098066</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021844</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641231</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409488</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681287</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475754</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.9276637108</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028583</v>
+        <v>955.1031435655676</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028583</v>
+        <v>955.1031435655676</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028583</v>
+        <v>804.9865041532319</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028583</v>
+        <v>657.0734105708387</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028583</v>
+        <v>510.1834630729284</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903952</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383385</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241955</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688067</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799356</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471179</v>
       </c>
       <c r="N19" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974665</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980062</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.08282758574</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557896</v>
       </c>
       <c r="U19" t="n">
-        <v>982.3321745379599</v>
+        <v>1209.787631771454</v>
       </c>
       <c r="V19" t="n">
-        <v>727.647686332073</v>
+        <v>955.1031435655676</v>
       </c>
       <c r="W19" t="n">
-        <v>727.647686332073</v>
+        <v>955.1031435655676</v>
       </c>
       <c r="X19" t="n">
-        <v>499.6581354340557</v>
+        <v>955.1031435655676</v>
       </c>
       <c r="Y19" t="n">
-        <v>278.8655562905255</v>
+        <v>955.1031435655676</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5774,10 +5776,10 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,7 +5788,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
@@ -5805,37 +5807,37 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E21" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5847,10 +5849,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5865,7 +5867,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W21" t="n">
         <v>1571.258395043133</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403508</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929844</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T22" t="n">
-        <v>4660.934562929844</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>4371.805924143402</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4197.354693995183</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>3907.937523958222</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060205</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155889</v>
       </c>
       <c r="G23" t="n">
         <v>488.193237080547</v>
@@ -5984,13 +5986,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6020,19 +6022,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>987.4312590525784</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>812.9782297714514</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>664.0438201102002</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>504.8063651047446</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6063,16 +6065,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M24" t="n">
         <v>1228.513823643586</v>
@@ -6102,7 +6104,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>1825.495751771335</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916676</v>
+        <v>896.5552164996847</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916676</v>
+        <v>727.6190335717778</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916676</v>
+        <v>577.502394159442</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916676</v>
+        <v>429.5893005770489</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916676</v>
+        <v>282.6993530791385</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916676</v>
+        <v>114.5240313989591</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T25" t="n">
-        <v>4437.14914771935</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="U25" t="n">
-        <v>4148.020508932908</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="V25" t="n">
-        <v>3893.336020727022</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="W25" t="n">
-        <v>3603.918850690061</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916676</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916676</v>
+        <v>1078.203681329924</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
         <v>1701.09316900344</v>
@@ -6212,13 +6214,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
@@ -6257,16 +6259,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6303,28 +6305,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341673</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1302.911127126629</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6409,22 +6411,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>986.0022165609664</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V28" t="n">
-        <v>731.3177283550796</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W28" t="n">
-        <v>441.900558318119</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X28" t="n">
-        <v>213.9110074201016</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y28" t="n">
         <v>97.21709146028584</v>
@@ -6437,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,28 +6448,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6479,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6528,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619858</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8254548799443</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H31" t="n">
-        <v>180.4074464278876</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6649,22 +6651,22 @@
         <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U31" t="n">
-        <v>874.9271131227918</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V31" t="n">
-        <v>620.2426249169049</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W31" t="n">
-        <v>330.8254548799443</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X31" t="n">
-        <v>330.8254548799443</v>
+        <v>615.7499579788628</v>
       </c>
       <c r="Y31" t="n">
-        <v>330.8254548799443</v>
+        <v>429.2835647425823</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,10 +6700,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,10 +6718,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,19 +6733,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256434</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277033</v>
+        <v>2911.709630095316</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341673</v>
+        <v>3158.47475800178</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>3465.794891281741</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>3795.657518945774</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>4075.197584164471</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>4555.115143601278</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>4850.224560916992</v>
       </c>
       <c r="R33" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S33" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T33" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U33" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W33" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X33" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y33" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>434.3285960683721</v>
+        <v>760.7169704793943</v>
       </c>
       <c r="C34" t="n">
-        <v>265.3924131404652</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="D34" t="n">
-        <v>265.3924131404652</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E34" t="n">
-        <v>265.3924131404652</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F34" t="n">
-        <v>265.3924131404652</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6892,16 +6894,16 @@
         <v>1498.916270557902</v>
       </c>
       <c r="V34" t="n">
-        <v>1244.231782352015</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W34" t="n">
-        <v>954.8146123150548</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X34" t="n">
-        <v>836.769640042142</v>
+        <v>981.5095496229244</v>
       </c>
       <c r="Y34" t="n">
-        <v>615.9770608986119</v>
+        <v>760.7169704793943</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6931,16 @@
         <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -7023,19 +7025,19 @@
         <v>534.5429807341673</v>
       </c>
       <c r="M36" t="n">
-        <v>1247.466478653857</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N36" t="n">
-        <v>2051.878056918008</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136705</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>727.1135926675564</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>558.1774097396495</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>408.0607703273138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>408.0607703273138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>408.0607703273138</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7120,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.916270557902</v>
+        <v>1379.229518531123</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.787631771461</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V37" t="n">
-        <v>955.1031435655738</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W37" t="n">
-        <v>955.1031435655738</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X37" t="n">
-        <v>727.1135926675564</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y37" t="n">
-        <v>727.1135926675564</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7193,31 +7195,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7250,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7257,22 +7259,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1206.718781115524</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="C40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7356,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1304.650812152126</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1080.865396941632</v>
+        <v>1050.642398679616</v>
       </c>
       <c r="U40" t="n">
-        <v>791.73675815519</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="V40" t="n">
-        <v>537.0522699493032</v>
+        <v>761.5137598931742</v>
       </c>
       <c r="W40" t="n">
-        <v>247.6350999123426</v>
+        <v>472.0965898562135</v>
       </c>
       <c r="X40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="Y40" t="n">
-        <v>247.6350999123426</v>
+        <v>244.1070389581962</v>
       </c>
     </row>
     <row r="41">
@@ -7388,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7430,10 +7432,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,7 +7487,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
@@ -7506,10 +7508,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>4744.160657054477</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>4520.375241843983</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>4231.246603057541</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V43" t="n">
-        <v>3976.562114851654</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W43" t="n">
-        <v>3687.144944814693</v>
+        <v>465.7659634441654</v>
       </c>
       <c r="X43" t="n">
-        <v>3459.155393916676</v>
+        <v>237.776412546148</v>
       </c>
       <c r="Y43" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7682,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7724,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>644.6755122555218</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>891.4406401619858</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1198.760773441947</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1528.62340110598</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
@@ -7834,22 +7836,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U46" t="n">
-        <v>1075.21084526296</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.21084526296</v>
+        <v>755.183133481126</v>
       </c>
       <c r="W46" t="n">
-        <v>1075.21084526296</v>
+        <v>727.647686332073</v>
       </c>
       <c r="X46" t="n">
-        <v>966.6240513566914</v>
+        <v>499.6581354340557</v>
       </c>
       <c r="Y46" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8304,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>435.923890002883</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8546,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>350.4438349360588</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720825</v>
       </c>
       <c r="K11" t="n">
         <v>324.1454125711647</v>
@@ -8711,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8784,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8948,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298203</v>
+        <v>65.71641987299066</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9021,13 +9023,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208121</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,10 +9248,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>127.6461250100641</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776804</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445238</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9422,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298389</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9495,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208072</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,10 +9646,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119847</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9732,13 +9734,13 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9951,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,25 +10193,25 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814716</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>34.78428385445218</v>
@@ -10370,7 +10372,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229582</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>409.7003683229582</v>
+        <v>398.9629823660896</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10841,10 +10843,10 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10907,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>288.4091825776757</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10917,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11078,7 +11080,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599068</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11154,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776754</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>234.4116509503169</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23315,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23416,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23428,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>185.2612894846729</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,13 +23475,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>54.59600032135427</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>10.32564214242524</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23706,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>105.95217415674</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23719,7 +23721,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>16.98993439866979</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>82.70425972623045</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24178,13 +24180,13 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.39383318338591</v>
       </c>
       <c r="V22" t="n">
-        <v>79.43092547709108</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>131.7799578282496</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24415,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24649,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>75.26883114644335</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>103.0576765518772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>28.06079404634627</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,10 +24891,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>33.9829240481771</v>
       </c>
     </row>
     <row r="32">
@@ -25072,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>79.14976546686053</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,13 +25134,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,10 +25326,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>7.672154752556082</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25360,7 +25362,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>79.43092547709136</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
@@ -25372,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25558,13 +25560,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25594,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>5.598006161884655</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>85.64159028628194</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25834,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>82.39383318338635</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>79.43092547709125</v>
       </c>
     </row>
     <row r="44">
@@ -26023,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26074,19 +26076,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>259.2629056590285</v>
       </c>
       <c r="X46" t="n">
-        <v>118.2087294218308</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="8">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.238904999</v>
+        <v>574729.2389049989</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049989</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.238904999</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="F2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="F2" t="n">
-        <v>547440.6836327922</v>
       </c>
       <c r="G2" t="n">
         <v>547440.683632792</v>
@@ -26332,28 +26334,28 @@
         <v>547440.6836327922</v>
       </c>
       <c r="I2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="J2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="K2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="L2" t="n">
         <v>547440.6836327917</v>
       </c>
-      <c r="J2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.6836327921</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>547440.683632792</v>
       </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="O2" t="n">
+        <v>547440.6836327917</v>
+      </c>
+      <c r="P2" t="n">
         <v>547440.683632792</v>
-      </c>
-      <c r="P2" t="n">
-        <v>547440.6836327922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768949</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.686857128</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
         <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773401</v>
       </c>
       <c r="F4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773401</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773401</v>
+        <v>36432.48351773392</v>
       </c>
       <c r="H4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773393</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773396</v>
@@ -26442,19 +26444,19 @@
         <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773401</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773396</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.48351773397</v>
       </c>
       <c r="P4" t="n">
         <v>36432.48351773396</v>
@@ -26473,7 +26475,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871661</v>
@@ -26485,16 +26487,16 @@
         <v>91987.32594871661</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
@@ -26503,13 +26505,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26519,19 +26521,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300829</v>
+        <v>-281446.4052300832</v>
       </c>
       <c r="C6" t="n">
         <v>308521.4739844615</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844613</v>
+        <v>308521.4739844616</v>
       </c>
       <c r="E6" t="n">
-        <v>-106139.1623105545</v>
+        <v>-106139.1623105533</v>
       </c>
       <c r="F6" t="n">
-        <v>419020.8741663417</v>
+        <v>419020.8741663415</v>
       </c>
       <c r="G6" t="n">
         <v>419020.8741663414</v>
@@ -26540,28 +26542,28 @@
         <v>419020.8741663416</v>
       </c>
       <c r="I6" t="n">
-        <v>419020.8741663411</v>
+        <v>419020.8741663417</v>
       </c>
       <c r="J6" t="n">
-        <v>242597.6549737484</v>
+        <v>242597.6549737488</v>
       </c>
       <c r="K6" t="n">
-        <v>419020.8741663415</v>
+        <v>419020.8741663418</v>
       </c>
       <c r="L6" t="n">
-        <v>419020.8741663416</v>
+        <v>419020.8741663412</v>
       </c>
       <c r="M6" t="n">
         <v>284219.8589325044</v>
       </c>
       <c r="N6" t="n">
-        <v>419020.8741663413</v>
+        <v>419020.8741663414</v>
       </c>
       <c r="O6" t="n">
+        <v>419020.8741663411</v>
+      </c>
+      <c r="P6" t="n">
         <v>419020.8741663414</v>
-      </c>
-      <c r="P6" t="n">
-        <v>419020.8741663416</v>
       </c>
     </row>
   </sheetData>
@@ -26735,28 +26737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054540987</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
@@ -26793,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370136</v>
+        <v>452.638741237012</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27385,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>18.17704642587626</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>244.6847758061934</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27536,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>56.01837628787186</v>
+        <v>40.3956708865872</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>281.1539702597867</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.8839004630637</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27679,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>17.8816912783675</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>98.70524268180444</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>256.5825783475872</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>102.0595553203302</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>265.5478313182746</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28090,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-1.133261760295336e-12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28539,7 +28541,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -28761,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-3.758651504979533e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>-8.038590482916834e-13</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31519,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J16" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.33822072544361</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444938</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176649</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961199</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.634194604148</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.796267130443</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565508</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927175</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540876</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946983</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446474</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104635</v>
       </c>
       <c r="T17" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562941</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354888</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354099</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386722</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127053</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215731</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622977</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358978</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724837</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813453</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855518</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458543</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710952</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095116</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677458</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361476</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680329</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081162</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990343</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298622</v>
       </c>
       <c r="J19" t="n">
-        <v>105.8669502822383</v>
+        <v>105.8669502822381</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557931</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.624161619612</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171315</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263746</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065628</v>
       </c>
       <c r="P19" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469069</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235689</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337657</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336896</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892233</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351799</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32472,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32545,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32557,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32566,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32581,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32645,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32657,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32707,40 +32709,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M23" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32780,10 +32782,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215733</v>
@@ -32792,7 +32794,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724845</v>
@@ -32801,10 +32803,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32816,7 +32818,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32880,7 +32882,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,10 +32894,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U25" t="n">
         <v>0.08167695791351813</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839191</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415161</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O13" t="n">
-        <v>236.237351520599</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970350593</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523362</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686844</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118004</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415074</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303322</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109062</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221106</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081107</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951462</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109114</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349771</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953152</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005173</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560236</v>
       </c>
       <c r="M18" t="n">
-        <v>438.0705020605303</v>
+        <v>310.4243770504654</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>333.194573398012</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411074</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975092045</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209228</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556533</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299102</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799281</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789721</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056032</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206025</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006117967</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187452</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523318</v>
       </c>
       <c r="Q21" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686862</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,19 +36442,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O24" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36513,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36522,7 +36524,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056036</v>
@@ -36534,7 +36536,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,25 +36913,25 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341714</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504662</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734244</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523304</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>720.1247453734244</v>
+        <v>709.3873594165558</v>
       </c>
       <c r="N36" t="n">
         <v>812.5369477415663</v>
@@ -37406,7 +37408,7 @@
         <v>88.0130327850741</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37561,10 +37563,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,7 +37627,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>537.6668875337</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504662</v>
@@ -37637,13 +37639,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37798,7 +37800,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502069</v>
       </c>
       <c r="R41" t="n">
         <v>59.82538970349808</v>
@@ -37874,13 +37876,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975092001</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,7 +38098,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>384.9870895382561</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
@@ -38111,13 +38113,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2164097.851446869</v>
+        <v>2169037.114295901</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800624</v>
+        <v>2264668.837800622</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>320.5458280726137</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -718,7 +718,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>241.4220408010369</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>9.27559683049698</v>
+        <v>9.275596830496628</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>191.2560860090958</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>20.26031580643121</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>223.8275496396399</v>
       </c>
       <c r="X7" t="n">
-        <v>56.88196987815829</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>88.30932981555297</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1180,16 +1180,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>48.26252137233968</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1229,10 +1229,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250815</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229326</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>28.51033041214409</v>
+        <v>28.51033041214341</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206845</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896921</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1581,13 +1581,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>156.2934908831574</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>7.678017864945129</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498017</v>
+        <v>251.0785952498026</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>88.52416382797699</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,16 +1818,16 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>118.4898845065123</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417128</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>411.9645167896915</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701364</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750087</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T21" t="n">
         <v>192.9654699154601</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151923</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>157.2425576766701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274068</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>138.5070438670632</v>
+        <v>138.5070438670631</v>
       </c>
       <c r="T24" t="n">
         <v>192.9654699154601</v>
@@ -2478,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2538,13 +2538,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>204.129165153206</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>20.91388839244332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>203.8435192151922</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>146.1854691670918</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>161.1706059301403</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3240,10 +3240,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151918</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3480,7 +3480,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -3717,10 +3717,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>60.2557483686285</v>
+        <v>145.8998232290783</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3742,7 +3742,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>118.4898845065123</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>5.562624396425565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1359.546482223454</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>990.5839652830421</v>
+        <v>903.3817252132462</v>
       </c>
       <c r="D2" t="n">
-        <v>632.3182666762915</v>
+        <v>545.1160266064958</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>545.1160266064958</v>
       </c>
       <c r="F2" t="n">
         <v>221.3323618866839</v>
@@ -4366,16 +4366,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1749.685814199265</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1749.685814199265</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1749.685814199265</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1359.546482223454</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4400,7 +4400,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
@@ -4427,13 +4427,13 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="D4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="E4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="F4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942404</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124031</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>108.9687959810048</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1803.3088759247</v>
+        <v>1937.315630222944</v>
       </c>
       <c r="C5" t="n">
-        <v>1434.346358984289</v>
+        <v>1568.353113282533</v>
       </c>
       <c r="D5" t="n">
-        <v>1076.080660377538</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="E5" t="n">
-        <v>1076.080660377538</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>665.0947555879309</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>247.1309474861177</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4585,34 +4585,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2676.684125557181</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2676.684125557181</v>
       </c>
       <c r="V5" t="n">
-        <v>2189.908715988822</v>
+        <v>2676.684125557181</v>
       </c>
       <c r="W5" t="n">
-        <v>2189.908715988822</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="X5" t="n">
-        <v>2189.908715988822</v>
+        <v>2323.915470287066</v>
       </c>
       <c r="Y5" t="n">
-        <v>2189.908715988822</v>
+        <v>2323.915470287066</v>
       </c>
     </row>
     <row r="6">
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4652,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036446</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245972</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245972</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="X7" t="n">
-        <v>456.3840257941342</v>
+        <v>502.0405502269999</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>281.2479710834698</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1187.828354776384</v>
+        <v>532.9757468194221</v>
       </c>
       <c r="C8" t="n">
-        <v>818.8658378359718</v>
+        <v>164.0132298790103</v>
       </c>
       <c r="D8" t="n">
-        <v>460.6001392292213</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097704</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224082</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977176</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018224</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018224</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018224</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2648.399069430002</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2317.336182086431</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1964.567526816317</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>1964.567526816317</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="Y8" t="n">
-        <v>1574.428194840505</v>
+        <v>919.5755868835438</v>
       </c>
     </row>
     <row r="9">
@@ -4874,25 +4874,25 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424005</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572651</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4941,46 +4941,46 @@
         <v>517.6822058285749</v>
       </c>
       <c r="C10" t="n">
-        <v>348.746022900668</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="D10" t="n">
-        <v>348.746022900668</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
         <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
         <v>699.3306706588146</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5038,10 +5038,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
@@ -5062,31 +5062,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,10 +5175,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>860.7301020851612</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="C13" t="n">
-        <v>860.7301020851612</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="D13" t="n">
         <v>710.6134626728254</v>
@@ -5193,19 +5193,19 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471194</v>
@@ -5229,22 +5229,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557903</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.160696956948</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="W13" t="n">
-        <v>1491.160696956948</v>
+        <v>1341.044057544613</v>
       </c>
       <c r="X13" t="n">
-        <v>1263.171146058931</v>
+        <v>1113.054506646595</v>
       </c>
       <c r="Y13" t="n">
-        <v>1042.378566915401</v>
+        <v>892.2619275030652</v>
       </c>
     </row>
     <row r="14">
@@ -5275,40 +5275,40 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823788</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
         <v>4262.357857465301</v>
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636251</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.37645130762</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526317</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>355.5716216891797</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612728</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612728</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612728</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028587</v>
+        <v>186.6354387612728</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
         <v>779.0639759471194</v>
@@ -5466,22 +5466,22 @@
         <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1379.229518531123</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U16" t="n">
-        <v>1090.100879744681</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V16" t="n">
-        <v>835.416391538794</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W16" t="n">
-        <v>545.9992215018333</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>758.0126656629495</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>537.2200865194194</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
         <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514089</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643324</v>
@@ -5539,22 +5539,22 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V17" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590537</v>
@@ -5591,25 +5591,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>412.6079778147083</v>
       </c>
       <c r="L18" t="n">
-        <v>921.1936903636251</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M18" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851559</v>
       </c>
       <c r="N18" t="n">
-        <v>1558.37645130762</v>
+        <v>1663.687808515592</v>
       </c>
       <c r="O18" t="n">
-        <v>1837.916516526317</v>
+        <v>1943.227873734289</v>
       </c>
       <c r="P18" t="n">
         <v>2328.464088060424</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585752</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557908</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1298.99626047346</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="20">
@@ -5731,67 +5731,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805468</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636251</v>
+        <v>709.4934589365134</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216475</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.37645130762</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526317</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>955.1031435655742</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>278.8655562905255</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6065,28 +6065,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147082</v>
+        <v>287.7778528277036</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211724</v>
+        <v>901.6749225845924</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011341</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N24" t="n">
-        <v>1528.62340110598</v>
+        <v>1538.857683528587</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,40 +6123,40 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G25" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471196</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1498.916270557903</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>1209.787631771461</v>
+        <v>786.0822064765193</v>
       </c>
       <c r="V25" t="n">
-        <v>955.1031435655742</v>
+        <v>531.3977182706325</v>
       </c>
       <c r="W25" t="n">
-        <v>665.6859735286137</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>437.6964226305963</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y25" t="n">
-        <v>416.5712828402495</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
@@ -6226,28 +6226,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>2302.237516093321</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="G28" t="n">
         <v>97.21709146028584</v>
@@ -6390,10 +6390,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011506</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952637</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028584</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="29">
@@ -6442,31 +6442,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,16 +6475,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014292</v>
@@ -6496,16 +6496,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6530,13 +6530,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6545,19 +6545,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>416.2699138005285</v>
+        <v>675.007103038344</v>
       </c>
       <c r="C31" t="n">
-        <v>247.3337308726216</v>
+        <v>675.007103038344</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557903</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>1336.117678709276</v>
+        <v>675.007103038344</v>
       </c>
       <c r="W31" t="n">
-        <v>1046.700508672316</v>
+        <v>675.007103038344</v>
       </c>
       <c r="X31" t="n">
-        <v>818.7109577742983</v>
+        <v>675.007103038344</v>
       </c>
       <c r="Y31" t="n">
-        <v>597.9183786307682</v>
+        <v>675.007103038344</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515095</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643322</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899125</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6767,40 +6767,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6888,7 +6888,7 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
         <v>869.3083006011506</v>
@@ -6900,10 +6900,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,19 +6916,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822462</v>
@@ -6937,19 +6937,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6970,16 +6970,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7004,13 +7004,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
         <v>97.21709146028584</v>
@@ -7019,25 +7019,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,28 +7113,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
         <v>97.21709146028584</v>
@@ -7153,49 +7153,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,25 +7256,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G40" t="n">
         <v>359.1696912903951</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U40" t="n">
-        <v>903.2713495332425</v>
+        <v>816.762183007535</v>
       </c>
       <c r="V40" t="n">
-        <v>648.5868613273557</v>
+        <v>816.762183007535</v>
       </c>
       <c r="W40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="X40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.1696912903951</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="41">
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7447,16 +7447,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,25 +7493,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="E43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1379.229518531123</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1090.100879744681</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>835.416391538794</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>545.9992215018333</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X43" t="n">
-        <v>318.0096706038159</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="44">
@@ -7627,49 +7627,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,16 +7681,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,25 +7730,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
   </sheetData>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415596</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050818</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451761</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516212</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714825</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -8783,16 +8783,16 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8929,7 +8929,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711639</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9020,16 +9020,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776749</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298197</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9245,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>288.4091825776749</v>
+        <v>182.0340742867937</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298008</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>176.7176547498441</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776749</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9716,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>234.4116509503159</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>124.3400780863221</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445213</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>29.47535963978268</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,7 +10357,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>449.51353349283</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>437.3469244119842</v>
@@ -10445,13 +10445,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10594,7 +10594,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776749</v>
+        <v>277.6717966208067</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>65.25407017523185</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>244.4596254588829</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>77.96940463540059</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23706,16 +23706,16 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>103.0576765518769</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>82.39383318338054</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>82.393833183385</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>61.34209567542473</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24366,7 +24366,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24381,7 +24381,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,10 +24414,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24426,13 +24426,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>82.39383318338503</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>197.6707649596515</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,7 +24615,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>50.96659166315999</v>
       </c>
       <c r="H28" t="n">
         <v>148.9138283675361</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>82.39383318338511</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>2.430003851120517</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>90.96703739368775</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338557</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25563,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>225.9816040299488</v>
+        <v>140.3375291694991</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25794,7 +25794,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>113.0824928447106</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>79.43092547709092</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26037,7 +26037,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>192.3581855871777</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>856805.7152763469</v>
+        <v>856805.7152763468</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.715276347</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>856805.7152763468</v>
+        <v>856805.7152763469</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049988</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="C2" t="n">
-        <v>574729.2389049991</v>
+        <v>574729.2389049986</v>
       </c>
       <c r="D2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049984</v>
       </c>
       <c r="E2" t="n">
+        <v>547440.6836327921</v>
+      </c>
+      <c r="F2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="G2" t="n">
+        <v>547440.6836327923</v>
+      </c>
+      <c r="H2" t="n">
         <v>547440.6836327922</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>547440.6836327921</v>
-      </c>
-      <c r="G2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="H2" t="n">
-        <v>547440.6836327919</v>
-      </c>
-      <c r="I2" t="n">
-        <v>547440.6836327919</v>
       </c>
       <c r="J2" t="n">
         <v>547440.683632792</v>
       </c>
       <c r="K2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="L2" t="n">
+        <v>547440.6836327922</v>
+      </c>
+      <c r="M2" t="n">
+        <v>547440.683632792</v>
+      </c>
+      <c r="N2" t="n">
         <v>547440.6836327921</v>
       </c>
-      <c r="L2" t="n">
-        <v>547440.683632792</v>
-      </c>
-      <c r="M2" t="n">
-        <v>547440.6836327917</v>
-      </c>
-      <c r="N2" t="n">
-        <v>547440.6836327919</v>
-      </c>
       <c r="O2" t="n">
-        <v>547440.6836327921</v>
+        <v>547440.6836327922</v>
       </c>
       <c r="P2" t="n">
-        <v>547440.6836327919</v>
+        <v>547440.6836327927</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.2191925925</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,10 +26420,10 @@
         <v>183348.686857128</v>
       </c>
       <c r="C4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
         <v>36432.48351773394</v>
@@ -26432,34 +26432,34 @@
         <v>36432.48351773394</v>
       </c>
       <c r="G4" t="n">
-        <v>36432.48351773388</v>
+        <v>36432.48351773394</v>
       </c>
       <c r="H4" t="n">
+        <v>36432.48351773392</v>
+      </c>
+      <c r="I4" t="n">
         <v>36432.48351773394</v>
       </c>
-      <c r="I4" t="n">
-        <v>36432.48351773393</v>
-      </c>
       <c r="J4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773392</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="M4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773393</v>
+        <v>36432.48351773396</v>
       </c>
     </row>
     <row r="5">
@@ -26472,46 +26472,46 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-281446.4052300833</v>
+        <v>-281446.4052300832</v>
       </c>
       <c r="C6" t="n">
-        <v>308521.4739844617</v>
+        <v>308521.4739844613</v>
       </c>
       <c r="D6" t="n">
-        <v>308521.4739844608</v>
+        <v>308521.473984461</v>
       </c>
       <c r="E6" t="n">
-        <v>-107113.7535702759</v>
+        <v>-106236.6214365272</v>
       </c>
       <c r="F6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403692</v>
       </c>
       <c r="G6" t="n">
-        <v>418046.2829066195</v>
+        <v>418923.4150403696</v>
       </c>
       <c r="H6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403694</v>
       </c>
       <c r="I6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="J6" t="n">
-        <v>241623.0637140269</v>
+        <v>242500.1958477768</v>
       </c>
       <c r="K6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="L6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403694</v>
       </c>
       <c r="M6" t="n">
-        <v>283245.2676727823</v>
+        <v>284122.3998065319</v>
       </c>
       <c r="N6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403693</v>
       </c>
       <c r="O6" t="n">
-        <v>418046.2829066198</v>
+        <v>418923.4150403695</v>
       </c>
       <c r="P6" t="n">
-        <v>418046.2829066196</v>
+        <v>418923.4150403699</v>
       </c>
     </row>
   </sheetData>
@@ -26737,49 +26737,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541006</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26792,25 +26792,25 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253573</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370134</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990179</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>86.33021766909769</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>86.33021766909798</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27557,7 +27557,7 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>125.6900249618412</v>
+        <v>125.6900249618416</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>132.6666867552614</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>196.1880045512266</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27794,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>62.69544869695108</v>
       </c>
       <c r="X7" t="n">
-        <v>168.8276855108789</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>266.37371180513</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,16 +27900,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481161</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>202.9616461359496</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853695</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.6124195427701551</v>
+        <v>0.6124195427708976</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.350599632132798e-12</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28623,7 +28623,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28763,7 +28763,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>4.901797486430345e-12</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31278,46 +31278,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,22 +31460,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554473</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.647164540537</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633807</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.64752920647356</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141117</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188923</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396484</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034987</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372669</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078618</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644449</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175854</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383809</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678014</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701167</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197227</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315614</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
         <v>34.18755300444946</v>
@@ -31773,13 +31773,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647497</v>
@@ -31794,7 +31794,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31849,7 +31849,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N12" t="n">
         <v>464.5362854813463</v>
@@ -31870,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
         <v>45.03122946298631</v>
@@ -31922,10 +31922,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
         <v>234.725964217132</v>
@@ -31934,7 +31934,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31946,13 +31946,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -32010,13 +32010,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647497</v>
@@ -32031,7 +32031,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32086,7 +32086,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N15" t="n">
         <v>464.5362854813463</v>
@@ -32107,7 +32107,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
         <v>45.03122946298631</v>
@@ -32159,10 +32159,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
@@ -32171,7 +32171,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,13 +32183,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32247,13 +32247,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32268,7 +32268,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32323,7 +32323,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N18" t="n">
         <v>464.5362854813463</v>
@@ -32344,7 +32344,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32396,10 +32396,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32408,7 +32408,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32420,13 +32420,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32472,40 +32472,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32548,7 +32548,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
@@ -32557,19 +32557,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710957</v>
@@ -32578,13 +32578,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q22" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32709,40 +32709,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.634194604149</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304442</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565521</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946995</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647498</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446479</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104652</v>
       </c>
       <c r="T23" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562945</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32785,7 +32785,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127067</v>
       </c>
       <c r="J24" t="n">
         <v>168.7478056215734</v>
@@ -32794,19 +32794,19 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358987</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813464</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855528</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458551</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -32815,13 +32815,13 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677466</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361493</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1175069441680331</v>
+        <v>0.1175069441680332</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298632</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.1447054263752</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469074</v>
       </c>
       <c r="Q25" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337673</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351819</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730084</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181312</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060968</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770699</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713859</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279152</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.58174042459</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873158</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
@@ -35421,19 +35421,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M12" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091996</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
@@ -35576,7 +35576,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056037</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303323</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109073</v>
@@ -35658,19 +35658,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M15" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091996</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056037</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,7 +35883,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35895,19 +35895,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M18" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P18" t="n">
-        <v>495.5025975091996</v>
+        <v>389.1274892183184</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36050,7 +36050,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36059,10 +36059,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118057</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349582</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>425.9753597058686</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975091996</v>
+        <v>525.556183571462</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36287,19 +36287,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109074</v>
       </c>
       <c r="M23" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221119</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.499584150205</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349819</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504665</v>
       </c>
       <c r="N24" t="n">
-        <v>567.6062243483289</v>
+        <v>333.1945733980131</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>331.4334930178469</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507422</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36524,19 +36524,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718748</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>236.5687745713073</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,22 +36913,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221093</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,28 +37387,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q36" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,28 +38098,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091996</v>
+        <v>484.7652115523313</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
